--- a/参数.xlsx
+++ b/参数.xlsx
@@ -935,11 +935,333 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="ID_F1B58DC8A6FD4CB2A2ED9B69C830C22B" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="ID_649554D0B2FE4BBCAC1F009EE5D4208D" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="ID_C46AB608FAAC4619A20BD740FF4E01D0" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="ID_C79C601621CA4F46BC153AD3EBECBBCF" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ID_F88BE433B05C49629834E7D5766533B2" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="ID_F5143573E8BF4CE1A84C734394B578F6" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="ID_8282DB99DAD6449E9E4C16E10C03559B" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="ID_3750C24FD7894CFA9A0AEDE83EBE9F78" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="ID_76016E2091CC4141B0CBBEAABD0E2744" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="ID_4082BAA320474C5C812741BF0CE48CC6" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="ID_85CC7D074BE64B568F688A1E47B6E4DA" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="ID_40C375DA1AAC4E00A295E5348F8AE42F" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="ID_3A47A2A0F6824C9292849DE355B3F125" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="ID_94F48358881F4235A391A441EC6DEEA3" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>采空区长度/m</t>
   </si>
@@ -1036,16 +1358,54 @@
   <si>
     <t>切片图</t>
   </si>
+  <si>
+    <t>自燃三带面积</t>
+  </si>
+  <si>
+    <r>
+      <t>散热带面积/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>氧化带面积/m2</t>
+  </si>
+  <si>
+    <t>窒息带面积/m2</t>
+  </si>
+  <si>
+    <t>采空区总面积/m2</t>
+  </si>
+  <si>
+    <t>散热带占比</t>
+  </si>
+  <si>
+    <t>氧化带占比</t>
+  </si>
+  <si>
+    <t>窒息带占比</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1078,37 +1438,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,15 +1484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,10 +1498,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1177,24 +1553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,31 +1595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,13 +1607,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1649,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,31 +1727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,19 +1739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,37 +1751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,6 +1791,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,43 +1872,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1525,10 +1885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1537,7 +1897,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1546,10 +1906,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,116 +1918,116 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,8 +2049,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2011,12 +2380,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2032,9 +2401,15 @@
     <col min="10" max="11" width="10.7777777777778" customWidth="1"/>
     <col min="12" max="12" width="18.4444444444444" customWidth="1"/>
     <col min="13" max="13" width="20.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="19.1203703703704"/>
+    <col min="15" max="16" width="15.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="11.1111111111111" customWidth="1"/>
+    <col min="20" max="21" width="10.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:13">
+    <row r="1" ht="15.6" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2074,8 +2449,32 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:13">
+    <row r="2" ht="75" customHeight="1" spans="1:21">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -2106,7 +2505,7 @@
       <c r="J2" s="1">
         <v>1.2</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F983F65CC3154D119CC692D5B6B79401",1)</f>
         <v>=DISPIMG("ID_F983F65CC3154D119CC692D5B6B79401",1)</v>
@@ -2115,8 +2514,36 @@
         <f>_xlfn.DISPIMG("ID_8170750EB2334210A77110D3FAD6A9F7",1)</f>
         <v>=DISPIMG("ID_8170750EB2334210A77110D3FAD6A9F7",1)</v>
       </c>
+      <c r="N2" t="str">
+        <f>_xlfn.DISPIMG("ID_8282DB99DAD6449E9E4C16E10C03559B",1)</f>
+        <v>=DISPIMG("ID_8282DB99DAD6449E9E4C16E10C03559B",1)</v>
+      </c>
+      <c r="O2">
+        <v>7607.93</v>
+      </c>
+      <c r="P2">
+        <v>391.07</v>
+      </c>
+      <c r="Q2">
+        <v>8073.19</v>
+      </c>
+      <c r="R2">
+        <v>16718.76</v>
+      </c>
+      <c r="S2">
+        <f>O2/(P2+Q2+O2)</f>
+        <v>0.4733598843717</v>
+      </c>
+      <c r="T2">
+        <f>P2/(O2+P2+Q2)</f>
+        <v>0.0243320916440137</v>
+      </c>
+      <c r="U2">
+        <f>Q2/(O2+P2+Q2)</f>
+        <v>0.502308023984286</v>
+      </c>
     </row>
-    <row r="3" ht="88.75" spans="1:13">
+    <row r="3" ht="91.95" spans="1:21">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2157,6 +2584,34 @@
       <c r="M3" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B6E6F8E9DCD34F27BE32AFFCEE957AD1",1)</f>
         <v>=DISPIMG("ID_B6E6F8E9DCD34F27BE32AFFCEE957AD1",1)</v>
+      </c>
+      <c r="N3" t="str">
+        <f>_xlfn.DISPIMG("ID_3750C24FD7894CFA9A0AEDE83EBE9F78",1)</f>
+        <v>=DISPIMG("ID_3750C24FD7894CFA9A0AEDE83EBE9F78",1)</v>
+      </c>
+      <c r="O3">
+        <v>7110.38</v>
+      </c>
+      <c r="P3">
+        <v>999.61</v>
+      </c>
+      <c r="Q3">
+        <v>7227.32</v>
+      </c>
+      <c r="R3">
+        <v>16718.76</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S21" si="0">O3/(P3+Q3+O3)</f>
+        <v>0.463600201078286</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T21" si="1">P3/(O3+P3+Q3)</f>
+        <v>0.0651750535132954</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U21" si="2">Q3/(O3+P3+Q3)</f>
+        <v>0.471224745408419</v>
       </c>
     </row>
     <row r="4" ht="77" customHeight="1" spans="1:13">
@@ -2190,7 +2645,7 @@
       <c r="J4" s="6">
         <v>1.2</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_06455EB38AFF403DB52A03D074DD21C9",1)</f>
         <v>=DISPIMG("ID_06455EB38AFF403DB52A03D074DD21C9",1)</v>
@@ -2231,7 +2686,7 @@
       <c r="J5" s="6">
         <v>1.5</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_C9733503DD984B039177D239C7443A90",1)</f>
         <v>=DISPIMG("ID_C9733503DD984B039177D239C7443A90",1)</v>
@@ -2272,7 +2727,7 @@
       <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3623CCBE0ED34FADBF18A58542F1A6D4",1)</f>
         <v>=DISPIMG("ID_3623CCBE0ED34FADBF18A58542F1A6D4",1)</v>
@@ -2282,7 +2737,7 @@
         <v>=DISPIMG("ID_A2F10F215FDF4EADB042B7E158F0CD72",1)</v>
       </c>
     </row>
-    <row r="7" ht="77" customHeight="1" spans="1:13">
+    <row r="7" ht="77" customHeight="1" spans="1:21">
       <c r="A7" s="1">
         <v>150</v>
       </c>
@@ -2313,7 +2768,7 @@
       <c r="J7" s="4">
         <v>1.2</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7421FF64CC914FA8838CF131CC5557EE",1)</f>
         <v>=DISPIMG("ID_7421FF64CC914FA8838CF131CC5557EE",1)</v>
@@ -2322,8 +2777,36 @@
         <f>_xlfn.DISPIMG("ID_CAB17161862D481CA8B777187EED948D",1)</f>
         <v>=DISPIMG("ID_CAB17161862D481CA8B777187EED948D",1)</v>
       </c>
+      <c r="N7" t="str">
+        <f>_xlfn.DISPIMG("ID_F1B58DC8A6FD4CB2A2ED9B69C830C22B",1)</f>
+        <v>=DISPIMG("ID_F1B58DC8A6FD4CB2A2ED9B69C830C22B",1)</v>
+      </c>
+      <c r="O7">
+        <v>8247.58</v>
+      </c>
+      <c r="P7">
+        <v>3216.98</v>
+      </c>
+      <c r="Q7">
+        <v>12790.17</v>
+      </c>
+      <c r="R7">
+        <v>25068.76</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.340040066411789</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0.132633098781145</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0.527326834807067</v>
+      </c>
     </row>
-    <row r="8" ht="77" customHeight="1" spans="1:13">
+    <row r="8" ht="77" customHeight="1" spans="1:21">
       <c r="A8" s="1">
         <v>150</v>
       </c>
@@ -2354,7 +2837,7 @@
       <c r="J8" s="4">
         <v>1.5</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_EE59177EFFD04BDC93CB051C2B8B2211",1)</f>
         <v>=DISPIMG("ID_EE59177EFFD04BDC93CB051C2B8B2211",1)</v>
@@ -2363,8 +2846,36 @@
         <f>_xlfn.DISPIMG("ID_797ACB6FE5A748B1ACD901551D5D203A",1)</f>
         <v>=DISPIMG("ID_797ACB6FE5A748B1ACD901551D5D203A",1)</v>
       </c>
+      <c r="N8" t="str">
+        <f>_xlfn.DISPIMG("ID_649554D0B2FE4BBCAC1F009EE5D4208D",1)</f>
+        <v>=DISPIMG("ID_649554D0B2FE4BBCAC1F009EE5D4208D",1)</v>
+      </c>
+      <c r="O8">
+        <v>8371.18</v>
+      </c>
+      <c r="P8">
+        <v>2428.73</v>
+      </c>
+      <c r="Q8">
+        <v>13350.79</v>
+      </c>
+      <c r="R8">
+        <v>25068.76</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.346622665181548</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0.100565615075339</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>0.552811719743113</v>
+      </c>
     </row>
-    <row r="9" ht="77" customHeight="1" spans="1:13">
+    <row r="9" ht="77" customHeight="1" spans="1:21">
       <c r="A9" s="1">
         <v>150</v>
       </c>
@@ -2395,7 +2906,7 @@
       <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7F1B6B9CA3B24E9592FD8F33CB8915C7",1)</f>
         <v>=DISPIMG("ID_7F1B6B9CA3B24E9592FD8F33CB8915C7",1)</v>
@@ -2404,8 +2915,36 @@
         <f>_xlfn.DISPIMG("ID_BAFDCA1407A54DF48E5916F63463F806",1)</f>
         <v>=DISPIMG("ID_BAFDCA1407A54DF48E5916F63463F806",1)</v>
       </c>
+      <c r="N9" t="str">
+        <f>_xlfn.DISPIMG("ID_C46AB608FAAC4619A20BD740FF4E01D0",1)</f>
+        <v>=DISPIMG("ID_C46AB608FAAC4619A20BD740FF4E01D0",1)</v>
+      </c>
+      <c r="O9">
+        <v>10774.26</v>
+      </c>
+      <c r="P9">
+        <v>1790.89</v>
+      </c>
+      <c r="Q9">
+        <v>11640.38</v>
+      </c>
+      <c r="R9">
+        <v>25068.76</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.445115640929986</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0.0739868121045067</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>0.480897546965507</v>
+      </c>
     </row>
-    <row r="10" ht="88.7" spans="1:13">
+    <row r="10" ht="91.95" spans="1:21">
       <c r="A10" s="1">
         <v>150</v>
       </c>
@@ -2440,15 +2979,43 @@
         <v>0.33</v>
       </c>
       <c r="L10" s="1" t="str">
-        <f t="shared" ref="L10:L12" si="0">_xlfn.DISPIMG("ID_F0E131ED61BD48B4ADD317C386DF747C",1)</f>
+        <f t="shared" ref="L10:L12" si="3">_xlfn.DISPIMG("ID_F0E131ED61BD48B4ADD317C386DF747C",1)</f>
         <v>=DISPIMG("ID_F0E131ED61BD48B4ADD317C386DF747C",1)</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f t="shared" ref="M10:M12" si="1">_xlfn.DISPIMG("ID_246DE20D0AFA447E869A1CC800BF347A",1)</f>
+        <f t="shared" ref="M10:M12" si="4">_xlfn.DISPIMG("ID_246DE20D0AFA447E869A1CC800BF347A",1)</f>
         <v>=DISPIMG("ID_246DE20D0AFA447E869A1CC800BF347A",1)</v>
       </c>
+      <c r="N10" t="str">
+        <f>_xlfn.DISPIMG("ID_C79C601621CA4F46BC153AD3EBECBBCF",1)</f>
+        <v>=DISPIMG("ID_C79C601621CA4F46BC153AD3EBECBBCF",1)</v>
+      </c>
+      <c r="O10">
+        <v>8675.68</v>
+      </c>
+      <c r="P10">
+        <v>1305.34</v>
+      </c>
+      <c r="Q10">
+        <v>13196.76</v>
+      </c>
+      <c r="R10">
+        <v>25068.76</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0.374310222980803</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0.056318594792081</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0.569371182227116</v>
+      </c>
     </row>
-    <row r="11" ht="88.75" spans="1:13">
+    <row r="11" ht="84" customHeight="1" spans="1:21">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -2490,8 +3057,36 @@
         <f>_xlfn.DISPIMG("ID_FCE3CA108DF94502AC9316CCEE57C1D8",1)</f>
         <v>=DISPIMG("ID_FCE3CA108DF94502AC9316CCEE57C1D8",1)</v>
       </c>
+      <c r="N11" t="str">
+        <f>_xlfn.DISPIMG("ID_F88BE433B05C49629834E7D5766533B2",1)</f>
+        <v>=DISPIMG("ID_F88BE433B05C49629834E7D5766533B2",1)</v>
+      </c>
+      <c r="O11">
+        <v>8874.62</v>
+      </c>
+      <c r="P11">
+        <v>1578.58</v>
+      </c>
+      <c r="Q11">
+        <v>12556.69</v>
+      </c>
+      <c r="R11">
+        <v>25068.76</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.385687197983128</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0.0686044131458255</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>0.545708388871046</v>
+      </c>
     </row>
-    <row r="12" ht="88.75" spans="1:13">
+    <row r="12" ht="91.95" spans="1:21">
       <c r="A12" s="1">
         <v>150</v>
       </c>
@@ -2533,8 +3128,36 @@
         <f>_xlfn.DISPIMG("ID_B4B58CBBAB634792834BBB113B6B80A9",1)</f>
         <v>=DISPIMG("ID_B4B58CBBAB634792834BBB113B6B80A9",1)</v>
       </c>
+      <c r="N12" t="str">
+        <f>_xlfn.DISPIMG("ID_F5143573E8BF4CE1A84C734394B578F6",1)</f>
+        <v>=DISPIMG("ID_F5143573E8BF4CE1A84C734394B578F6",1)</v>
+      </c>
+      <c r="O12">
+        <v>10170.36</v>
+      </c>
+      <c r="P12">
+        <v>1737.46</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>11256.5</v>
+      </c>
+      <c r="R12">
+        <v>25068.76</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0.439052819163265</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0.0750058710983098</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0.485941309738425</v>
+      </c>
     </row>
-    <row r="13" ht="92" customHeight="1" spans="1:13">
+    <row r="13" ht="92" customHeight="1" spans="1:21">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -2565,7 +3188,7 @@
       <c r="J13" s="1">
         <v>1.2</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DE6B6D5CC8294A68A94A38AF6EDB9EA5",1)</f>
         <v>=DISPIMG("ID_DE6B6D5CC8294A68A94A38AF6EDB9EA5",1)</v>
@@ -2574,8 +3197,36 @@
         <f>_xlfn.DISPIMG("ID_9A528EA943F244C4BB7650F08B795525",1)</f>
         <v>=DISPIMG("ID_9A528EA943F244C4BB7650F08B795525",1)</v>
       </c>
+      <c r="N13" t="str">
+        <f>_xlfn.DISPIMG("ID_4082BAA320474C5C812741BF0CE48CC6",1)</f>
+        <v>=DISPIMG("ID_4082BAA320474C5C812741BF0CE48CC6",1)</v>
+      </c>
+      <c r="O13">
+        <v>6694.14</v>
+      </c>
+      <c r="P13">
+        <v>3180.25</v>
+      </c>
+      <c r="Q13">
+        <v>22731.96</v>
+      </c>
+      <c r="R13">
+        <v>33418.76</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0.205301728037637</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0.0975346826615061</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>0.697163589300857</v>
+      </c>
     </row>
-    <row r="14" ht="92" customHeight="1" spans="1:13">
+    <row r="14" ht="92" customHeight="1" spans="1:21">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -2606,7 +3257,7 @@
       <c r="J14" s="1">
         <v>1.2</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_12BAAE8AF2F04194B9F7F4898357EEF2",1)</f>
         <v>=DISPIMG("ID_12BAAE8AF2F04194B9F7F4898357EEF2",1)</v>
@@ -2615,8 +3266,36 @@
         <f>_xlfn.DISPIMG("ID_1A279E5755564BE48972B0C16E05D7D0",1)</f>
         <v>=DISPIMG("ID_1A279E5755564BE48972B0C16E05D7D0",1)</v>
       </c>
+      <c r="N14" t="str">
+        <f>_xlfn.DISPIMG("ID_76016E2091CC4141B0CBBEAABD0E2744",1)</f>
+        <v>=DISPIMG("ID_76016E2091CC4141B0CBBEAABD0E2744",1)</v>
+      </c>
+      <c r="O14">
+        <v>5120.91</v>
+      </c>
+      <c r="P14">
+        <v>553.62</v>
+      </c>
+      <c r="Q14">
+        <v>26893.82</v>
+      </c>
+      <c r="R14">
+        <v>33418.76</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.157235782592609</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0.0169987119396592</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>0.825765505467732</v>
+      </c>
     </row>
-    <row r="15" ht="92" customHeight="1" spans="1:13">
+    <row r="15" ht="92" customHeight="1" spans="1:21">
       <c r="A15" s="1">
         <v>200</v>
       </c>
@@ -2647,7 +3326,7 @@
       <c r="J15" s="1">
         <v>1.2</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_999DB31C7B0544FF86D4400D2433202A",1)</f>
         <v>=DISPIMG("ID_999DB31C7B0544FF86D4400D2433202A",1)</v>
@@ -2655,6 +3334,34 @@
       <c r="M15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_873BC7CCE07F4A87BF95582698593BDA",1)</f>
         <v>=DISPIMG("ID_873BC7CCE07F4A87BF95582698593BDA",1)</v>
+      </c>
+      <c r="N15" t="str">
+        <f>_xlfn.DISPIMG("ID_85CC7D074BE64B568F688A1E47B6E4DA",1)</f>
+        <v>=DISPIMG("ID_85CC7D074BE64B568F688A1E47B6E4DA",1)</v>
+      </c>
+      <c r="O15">
+        <v>4378.07</v>
+      </c>
+      <c r="P15">
+        <v>443.96</v>
+      </c>
+      <c r="Q15">
+        <v>27784.09</v>
+      </c>
+      <c r="R15">
+        <v>33418.76</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0.134271418985148</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0.0136158488038442</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0.852112732211008</v>
       </c>
     </row>
     <row r="16" ht="94" customHeight="1" spans="1:13">
@@ -2688,7 +3395,7 @@
       <c r="J16" s="1">
         <v>1.2</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B050C39D49AF4672BFB0FD2F95A7608B",1)</f>
         <v>=DISPIMG("ID_B050C39D49AF4672BFB0FD2F95A7608B",1)</v>
@@ -2729,7 +3436,7 @@
       <c r="J17" s="1">
         <v>1.2</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_567AF5054CC4436C828E2332E0F499D8",1)</f>
         <v>=DISPIMG("ID_567AF5054CC4436C828E2332E0F499D8",1)</v>
@@ -2770,7 +3477,7 @@
       <c r="J18" s="1">
         <v>1.2</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_13A04474B9044C3E882180466A798451",1)</f>
         <v>=DISPIMG("ID_13A04474B9044C3E882180466A798451",1)</v>
@@ -2780,7 +3487,7 @@
         <v>=DISPIMG("ID_7F572681FC0E4FAFAF6FAFA4597E8ED3",1)</v>
       </c>
     </row>
-    <row r="19" ht="88" customHeight="1" spans="1:13">
+    <row r="19" ht="88" customHeight="1" spans="1:21">
       <c r="A19" s="1">
         <v>200</v>
       </c>
@@ -2822,8 +3529,36 @@
         <f>_xlfn.DISPIMG("ID_5FA6B83FDA1E4BF19CE369797E0A5B4B",1)</f>
         <v>=DISPIMG("ID_5FA6B83FDA1E4BF19CE369797E0A5B4B",1)</v>
       </c>
+      <c r="N19" t="str">
+        <f>_xlfn.DISPIMG("ID_40C375DA1AAC4E00A295E5348F8AE42F",1)</f>
+        <v>=DISPIMG("ID_40C375DA1AAC4E00A295E5348F8AE42F",1)</v>
+      </c>
+      <c r="O19">
+        <v>12147.84</v>
+      </c>
+      <c r="P19">
+        <v>1527.97</v>
+      </c>
+      <c r="Q19">
+        <v>17123.89</v>
+      </c>
+      <c r="R19">
+        <v>33418.76</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0.394414231307448</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0.0496098987977156</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>0.555975869894837</v>
+      </c>
     </row>
-    <row r="20" ht="88" customHeight="1" spans="1:13">
+    <row r="20" ht="88" customHeight="1" spans="1:21">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -2865,8 +3600,36 @@
         <f>_xlfn.DISPIMG("ID_2571326401F347A1A85FDB2F07CC74B6",1)</f>
         <v>=DISPIMG("ID_2571326401F347A1A85FDB2F07CC74B6",1)</v>
       </c>
+      <c r="N20" t="str">
+        <f>_xlfn.DISPIMG("ID_94F48358881F4235A391A441EC6DEEA3",1)</f>
+        <v>=DISPIMG("ID_94F48358881F4235A391A441EC6DEEA3",1)</v>
+      </c>
+      <c r="O20">
+        <v>9795.68</v>
+      </c>
+      <c r="P20">
+        <v>1307.8</v>
+      </c>
+      <c r="Q20">
+        <v>19854.99</v>
+      </c>
+      <c r="R20">
+        <v>33418.76</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0.316413569533637</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0.0422436896913833</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>0.64134274077498</v>
+      </c>
     </row>
-    <row r="21" ht="88.7" spans="1:13">
+    <row r="21" ht="91.95" spans="1:21">
       <c r="A21" s="1">
         <v>200</v>
       </c>
@@ -2907,6 +3670,34 @@
       <c r="M21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DF56803C2A6F4530981D82853D0569AD",1)</f>
         <v>=DISPIMG("ID_DF56803C2A6F4530981D82853D0569AD",1)</v>
+      </c>
+      <c r="N21" t="str">
+        <f>_xlfn.DISPIMG("ID_3A47A2A0F6824C9292849DE355B3F125",1)</f>
+        <v>=DISPIMG("ID_3A47A2A0F6824C9292849DE355B3F125",1)</v>
+      </c>
+      <c r="O21">
+        <v>7857.19</v>
+      </c>
+      <c r="P21">
+        <v>1214.93</v>
+      </c>
+      <c r="Q21">
+        <v>22096.68</v>
+      </c>
+      <c r="R21">
+        <v>33418.76</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>0.252085097918431</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0.0389790431457098</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>0.708935858935859</v>
       </c>
     </row>
   </sheetData>

--- a/参数.xlsx
+++ b/参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020"/>
+    <workbookView windowWidth="18420" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="ID_C46AB608FAAC4619A20BD740FF4E01D0" descr="area"/>
+        <xdr:cNvPr id="45" name="ID_C79C601621CA4F46BC153AD3EBECBBCF" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1007,7 +1007,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="ID_C79C601621CA4F46BC153AD3EBECBBCF" descr="area"/>
+        <xdr:cNvPr id="49" name="ID_8282DB99DAD6449E9E4C16E10C03559B" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1030,7 +1030,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="ID_F88BE433B05C49629834E7D5766533B2" descr="area"/>
+        <xdr:cNvPr id="50" name="ID_3750C24FD7894CFA9A0AEDE83EBE9F78" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1053,7 +1053,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="ID_F5143573E8BF4CE1A84C734394B578F6" descr="area"/>
+        <xdr:cNvPr id="52" name="ID_76016E2091CC4141B0CBBEAABD0E2744" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1076,7 +1076,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="ID_8282DB99DAD6449E9E4C16E10C03559B" descr="area"/>
+        <xdr:cNvPr id="53" name="ID_4082BAA320474C5C812741BF0CE48CC6" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1099,7 +1099,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="ID_3750C24FD7894CFA9A0AEDE83EBE9F78" descr="area"/>
+        <xdr:cNvPr id="54" name="ID_85CC7D074BE64B568F688A1E47B6E4DA" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1122,7 +1122,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="ID_76016E2091CC4141B0CBBEAABD0E2744" descr="area"/>
+        <xdr:cNvPr id="55" name="ID_40C375DA1AAC4E00A295E5348F8AE42F" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1145,7 +1145,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="ID_4082BAA320474C5C812741BF0CE48CC6" descr="area"/>
+        <xdr:cNvPr id="57" name="ID_3A47A2A0F6824C9292849DE355B3F125" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1168,7 +1168,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="ID_85CC7D074BE64B568F688A1E47B6E4DA" descr="area"/>
+        <xdr:cNvPr id="58" name="ID_94F48358881F4235A391A441EC6DEEA3" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1191,7 +1191,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="ID_40C375DA1AAC4E00A295E5348F8AE42F" descr="area"/>
+        <xdr:cNvPr id="46" name="ID_0431AA0FE6EA4087B7284B0116259C70" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1214,7 +1214,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="ID_3A47A2A0F6824C9292849DE355B3F125" descr="area"/>
+        <xdr:cNvPr id="51" name="ID_89476ACED1134E61B56EBE9AFA1C8BEE" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1237,7 +1237,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="ID_94F48358881F4235A391A441EC6DEEA3" descr="area"/>
+        <xdr:cNvPr id="59" name="ID_1FBE4D2F36CF45AB90BBD0C5A48D81C4" descr="area"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1250,6 +1250,236 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8058150" cy="7162800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="ID_3429682064484E0EAA549C5F5E8950D0" descr="图片5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="ID_8E89DC1438F841BAB6206D78620D216A" descr="图片6"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="ID_5A0950C14E6844C2BE854673493BDE7F" descr="图片7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="ID_3FBA00B47D4A4954B64C5E9EDFD4D388" descr="图片8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="ID_1FC4DC48A2F746939293EA039935E297" descr="图片9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="ID_6C14CC3F68394FFF96D13B4AFD768174" descr="图片10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="ID_09884438A075462181A9800A93E63E43" descr="图片11"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584700" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="ID_7378B5414A914F79BE3C3204775BAD9A" descr="图片12"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584700" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="ID_856BF2A19052440B8E39C7D7D046D643" descr="图片13"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584700" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="ID_05F8C32D3CFC4E00BDF23D33F8D9208B" descr="图片14"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4584700" cy="2755900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1261,7 +1491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>采空区长度/m</t>
   </si>
@@ -1362,38 +1592,28 @@
     <t>自燃三带面积</t>
   </si>
   <si>
-    <r>
-      <t>散热带面积/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>散热带面积</t>
   </si>
   <si>
-    <t>氧化带面积/m2</t>
+    <t>氧化带面积</t>
   </si>
   <si>
-    <t>窒息带面积/m2</t>
+    <t>窒息带面积</t>
   </si>
   <si>
     <t>采空区总面积/m2</t>
   </si>
   <si>
-    <t>散热带占比</t>
+    <t>散热带</t>
   </si>
   <si>
-    <t>氧化带占比</t>
+    <t>氧化带</t>
   </si>
   <si>
-    <t>窒息带占比</t>
+    <t>窒息带</t>
+  </si>
+  <si>
+    <t>比例图</t>
   </si>
 </sst>
 </file>
@@ -1402,10 +1622,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1437,8 +1657,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,6 +1679,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1466,9 +1702,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1484,33 +1720,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1560,6 +1772,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,7 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1827,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,25 +1863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,7 +1881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,13 +1905,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,19 +1947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,37 +1965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,6 +1998,21 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1810,26 +2045,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1841,21 +2056,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1872,8 +2072,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,10 +2105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1897,7 +2117,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1906,25 +2126,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1933,97 +2156,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2049,13 +2269,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2380,12 +2600,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2407,9 +2627,10 @@
     <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
     <col min="19" max="19" width="11.1111111111111" customWidth="1"/>
     <col min="20" max="21" width="10.5555555555556" customWidth="1"/>
+    <col min="22" max="22" width="28.1388888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:21">
+    <row r="1" ht="15.6" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,10 +2670,10 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
@@ -2473,8 +2694,11 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:21">
+    <row r="2" ht="75" customHeight="1" spans="1:22">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -2505,7 +2729,7 @@
       <c r="J2" s="1">
         <v>1.2</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F983F65CC3154D119CC692D5B6B79401",1)</f>
         <v>=DISPIMG("ID_F983F65CC3154D119CC692D5B6B79401",1)</v>
@@ -2542,8 +2766,12 @@
         <f>Q2/(O2+P2+Q2)</f>
         <v>0.502308023984286</v>
       </c>
+      <c r="V2" t="str">
+        <f>_xlfn.DISPIMG("ID_3429682064484E0EAA549C5F5E8950D0",1)</f>
+        <v>=DISPIMG("ID_3429682064484E0EAA549C5F5E8950D0",1)</v>
+      </c>
     </row>
-    <row r="3" ht="91.95" spans="1:21">
+    <row r="3" ht="91.95" spans="1:22">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2612,6 +2840,10 @@
       <c r="U3">
         <f t="shared" ref="U3:U21" si="2">Q3/(O3+P3+Q3)</f>
         <v>0.471224745408419</v>
+      </c>
+      <c r="V3" t="str">
+        <f>_xlfn.DISPIMG("ID_3FBA00B47D4A4954B64C5E9EDFD4D388",1)</f>
+        <v>=DISPIMG("ID_3FBA00B47D4A4954B64C5E9EDFD4D388",1)</v>
       </c>
     </row>
     <row r="4" ht="77" customHeight="1" spans="1:13">
@@ -2645,7 +2877,7 @@
       <c r="J4" s="6">
         <v>1.2</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_06455EB38AFF403DB52A03D074DD21C9",1)</f>
         <v>=DISPIMG("ID_06455EB38AFF403DB52A03D074DD21C9",1)</v>
@@ -2686,7 +2918,7 @@
       <c r="J5" s="6">
         <v>1.5</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_C9733503DD984B039177D239C7443A90",1)</f>
         <v>=DISPIMG("ID_C9733503DD984B039177D239C7443A90",1)</v>
@@ -2727,7 +2959,7 @@
       <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3623CCBE0ED34FADBF18A58542F1A6D4",1)</f>
         <v>=DISPIMG("ID_3623CCBE0ED34FADBF18A58542F1A6D4",1)</v>
@@ -2737,7 +2969,7 @@
         <v>=DISPIMG("ID_A2F10F215FDF4EADB042B7E158F0CD72",1)</v>
       </c>
     </row>
-    <row r="7" ht="77" customHeight="1" spans="1:21">
+    <row r="7" ht="77" customHeight="1" spans="1:22">
       <c r="A7" s="1">
         <v>150</v>
       </c>
@@ -2768,7 +3000,7 @@
       <c r="J7" s="4">
         <v>1.2</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7421FF64CC914FA8838CF131CC5557EE",1)</f>
         <v>=DISPIMG("ID_7421FF64CC914FA8838CF131CC5557EE",1)</v>
@@ -2805,8 +3037,12 @@
         <f t="shared" si="2"/>
         <v>0.527326834807067</v>
       </c>
+      <c r="V7" t="str">
+        <f>_xlfn.DISPIMG("ID_8E89DC1438F841BAB6206D78620D216A",1)</f>
+        <v>=DISPIMG("ID_8E89DC1438F841BAB6206D78620D216A",1)</v>
+      </c>
     </row>
-    <row r="8" ht="77" customHeight="1" spans="1:21">
+    <row r="8" ht="77" customHeight="1" spans="1:22">
       <c r="A8" s="1">
         <v>150</v>
       </c>
@@ -2837,7 +3073,7 @@
       <c r="J8" s="4">
         <v>1.5</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_EE59177EFFD04BDC93CB051C2B8B2211",1)</f>
         <v>=DISPIMG("ID_EE59177EFFD04BDC93CB051C2B8B2211",1)</v>
@@ -2873,6 +3109,10 @@
       <c r="U8">
         <f t="shared" si="2"/>
         <v>0.552811719743113</v>
+      </c>
+      <c r="V8" t="str">
+        <f>_xlfn.DISPIMG("ID_09884438A075462181A9800A93E63E43",1)</f>
+        <v>=DISPIMG("ID_09884438A075462181A9800A93E63E43",1)</v>
       </c>
     </row>
     <row r="9" ht="77" customHeight="1" spans="1:21">
@@ -2906,7 +3146,7 @@
       <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7F1B6B9CA3B24E9592FD8F33CB8915C7",1)</f>
         <v>=DISPIMG("ID_7F1B6B9CA3B24E9592FD8F33CB8915C7",1)</v>
@@ -2916,8 +3156,8 @@
         <v>=DISPIMG("ID_BAFDCA1407A54DF48E5916F63463F806",1)</v>
       </c>
       <c r="N9" t="str">
-        <f>_xlfn.DISPIMG("ID_C46AB608FAAC4619A20BD740FF4E01D0",1)</f>
-        <v>=DISPIMG("ID_C46AB608FAAC4619A20BD740FF4E01D0",1)</v>
+        <f>_xlfn.DISPIMG("ID_0431AA0FE6EA4087B7284B0116259C70",1)</f>
+        <v>=DISPIMG("ID_0431AA0FE6EA4087B7284B0116259C70",1)</v>
       </c>
       <c r="O9">
         <v>10774.26</v>
@@ -2944,7 +3184,7 @@
         <v>0.480897546965507</v>
       </c>
     </row>
-    <row r="10" ht="91.95" spans="1:21">
+    <row r="10" ht="91.95" spans="1:22">
       <c r="A10" s="1">
         <v>150</v>
       </c>
@@ -3014,8 +3254,12 @@
         <f t="shared" si="2"/>
         <v>0.569371182227116</v>
       </c>
+      <c r="V10" t="str">
+        <f>_xlfn.DISPIMG("ID_1FC4DC48A2F746939293EA039935E297",1)</f>
+        <v>=DISPIMG("ID_1FC4DC48A2F746939293EA039935E297",1)</v>
+      </c>
     </row>
-    <row r="11" ht="84" customHeight="1" spans="1:21">
+    <row r="11" ht="84" customHeight="1" spans="1:22">
       <c r="A11" s="1">
         <v>150</v>
       </c>
@@ -3058,8 +3302,8 @@
         <v>=DISPIMG("ID_FCE3CA108DF94502AC9316CCEE57C1D8",1)</v>
       </c>
       <c r="N11" t="str">
-        <f>_xlfn.DISPIMG("ID_F88BE433B05C49629834E7D5766533B2",1)</f>
-        <v>=DISPIMG("ID_F88BE433B05C49629834E7D5766533B2",1)</v>
+        <f>_xlfn.DISPIMG("ID_89476ACED1134E61B56EBE9AFA1C8BEE",1)</f>
+        <v>=DISPIMG("ID_89476ACED1134E61B56EBE9AFA1C8BEE",1)</v>
       </c>
       <c r="O11">
         <v>8874.62</v>
@@ -3084,6 +3328,10 @@
       <c r="U11">
         <f t="shared" si="2"/>
         <v>0.545708388871046</v>
+      </c>
+      <c r="V11" t="str">
+        <f>_xlfn.DISPIMG("ID_7378B5414A914F79BE3C3204775BAD9A",1)</f>
+        <v>=DISPIMG("ID_7378B5414A914F79BE3C3204775BAD9A",1)</v>
       </c>
     </row>
     <row r="12" ht="91.95" spans="1:21">
@@ -3129,8 +3377,8 @@
         <v>=DISPIMG("ID_B4B58CBBAB634792834BBB113B6B80A9",1)</v>
       </c>
       <c r="N12" t="str">
-        <f>_xlfn.DISPIMG("ID_F5143573E8BF4CE1A84C734394B578F6",1)</f>
-        <v>=DISPIMG("ID_F5143573E8BF4CE1A84C734394B578F6",1)</v>
+        <f>_xlfn.DISPIMG("ID_1FBE4D2F36CF45AB90BBD0C5A48D81C4",1)</f>
+        <v>=DISPIMG("ID_1FBE4D2F36CF45AB90BBD0C5A48D81C4",1)</v>
       </c>
       <c r="O12">
         <v>10170.36</v>
@@ -3157,7 +3405,7 @@
         <v>0.485941309738425</v>
       </c>
     </row>
-    <row r="13" ht="92" customHeight="1" spans="1:21">
+    <row r="13" ht="92" customHeight="1" spans="1:22">
       <c r="A13" s="1">
         <v>200</v>
       </c>
@@ -3188,7 +3436,7 @@
       <c r="J13" s="1">
         <v>1.2</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DE6B6D5CC8294A68A94A38AF6EDB9EA5",1)</f>
         <v>=DISPIMG("ID_DE6B6D5CC8294A68A94A38AF6EDB9EA5",1)</v>
@@ -3225,8 +3473,12 @@
         <f t="shared" si="2"/>
         <v>0.697163589300857</v>
       </c>
+      <c r="V13" t="str">
+        <f>_xlfn.DISPIMG("ID_5A0950C14E6844C2BE854673493BDE7F",1)</f>
+        <v>=DISPIMG("ID_5A0950C14E6844C2BE854673493BDE7F",1)</v>
+      </c>
     </row>
-    <row r="14" ht="92" customHeight="1" spans="1:21">
+    <row r="14" ht="92" customHeight="1" spans="1:22">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -3257,7 +3509,7 @@
       <c r="J14" s="1">
         <v>1.2</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_12BAAE8AF2F04194B9F7F4898357EEF2",1)</f>
         <v>=DISPIMG("ID_12BAAE8AF2F04194B9F7F4898357EEF2",1)</v>
@@ -3293,6 +3545,10 @@
       <c r="U14">
         <f t="shared" si="2"/>
         <v>0.825765505467732</v>
+      </c>
+      <c r="V14" t="str">
+        <f>_xlfn.DISPIMG("ID_856BF2A19052440B8E39C7D7D046D643",1)</f>
+        <v>=DISPIMG("ID_856BF2A19052440B8E39C7D7D046D643",1)</v>
       </c>
     </row>
     <row r="15" ht="92" customHeight="1" spans="1:21">
@@ -3326,7 +3582,7 @@
       <c r="J15" s="1">
         <v>1.2</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_999DB31C7B0544FF86D4400D2433202A",1)</f>
         <v>=DISPIMG("ID_999DB31C7B0544FF86D4400D2433202A",1)</v>
@@ -3395,7 +3651,7 @@
       <c r="J16" s="1">
         <v>1.2</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B050C39D49AF4672BFB0FD2F95A7608B",1)</f>
         <v>=DISPIMG("ID_B050C39D49AF4672BFB0FD2F95A7608B",1)</v>
@@ -3436,7 +3692,7 @@
       <c r="J17" s="1">
         <v>1.2</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_567AF5054CC4436C828E2332E0F499D8",1)</f>
         <v>=DISPIMG("ID_567AF5054CC4436C828E2332E0F499D8",1)</v>
@@ -3477,7 +3733,7 @@
       <c r="J18" s="1">
         <v>1.2</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_13A04474B9044C3E882180466A798451",1)</f>
         <v>=DISPIMG("ID_13A04474B9044C3E882180466A798451",1)</v>
@@ -3487,7 +3743,7 @@
         <v>=DISPIMG("ID_7F572681FC0E4FAFAF6FAFA4597E8ED3",1)</v>
       </c>
     </row>
-    <row r="19" ht="88" customHeight="1" spans="1:21">
+    <row r="19" ht="88" customHeight="1" spans="1:22">
       <c r="A19" s="1">
         <v>200</v>
       </c>
@@ -3557,8 +3813,12 @@
         <f t="shared" si="2"/>
         <v>0.555975869894837</v>
       </c>
+      <c r="V19" t="str">
+        <f>_xlfn.DISPIMG("ID_6C14CC3F68394FFF96D13B4AFD768174",1)</f>
+        <v>=DISPIMG("ID_6C14CC3F68394FFF96D13B4AFD768174",1)</v>
+      </c>
     </row>
-    <row r="20" ht="88" customHeight="1" spans="1:21">
+    <row r="20" ht="88" customHeight="1" spans="1:22">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -3627,6 +3887,10 @@
       <c r="U20">
         <f t="shared" si="2"/>
         <v>0.64134274077498</v>
+      </c>
+      <c r="V20" t="str">
+        <f>_xlfn.DISPIMG("ID_05F8C32D3CFC4E00BDF23D33F8D9208B",1)</f>
+        <v>=DISPIMG("ID_05F8C32D3CFC4E00BDF23D33F8D9208B",1)</v>
       </c>
     </row>
     <row r="21" ht="91.95" spans="1:21">

--- a/参数.xlsx
+++ b/参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18420" windowHeight="10020"/>
+    <workbookView windowWidth="18455" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1467,7 +1467,7 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="ID_05F8C32D3CFC4E00BDF23D33F8D9208B" descr="图片14"/>
+        <xdr:cNvPr id="44" name="ID_986F5CED1A844C76A93FAC5E4259506C" descr="图片1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1621,10 +1621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1657,25 +1657,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1686,9 +1679,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1702,9 +1694,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1720,30 +1742,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1758,13 +1757,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1774,7 +1774,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1815,7 +1815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,7 +1827,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,85 +1953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,43 +1965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1977,7 +1977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,17 +2000,20 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2064,25 +2067,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2097,6 +2082,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2105,10 +2105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2117,7 +2117,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2126,128 +2126,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,9 +2273,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2694,7 +2691,7 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3386,7 +3383,7 @@
       <c r="P12">
         <v>1737.46</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <v>11256.5</v>
       </c>
       <c r="R12">
@@ -3889,8 +3886,8 @@
         <v>0.64134274077498</v>
       </c>
       <c r="V20" t="str">
-        <f>_xlfn.DISPIMG("ID_05F8C32D3CFC4E00BDF23D33F8D9208B",1)</f>
-        <v>=DISPIMG("ID_05F8C32D3CFC4E00BDF23D33F8D9208B",1)</v>
+        <f>_xlfn.DISPIMG("ID_986F5CED1A844C76A93FAC5E4259506C",1)</f>
+        <v>=DISPIMG("ID_986F5CED1A844C76A93FAC5E4259506C",1)</v>
       </c>
     </row>
     <row r="21" ht="91.95" spans="1:21">

--- a/参数.xlsx
+++ b/参数.xlsx
@@ -1487,16 +1487,272 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="ID_45A0FEAB9E71469AB2CEC3376373B16F" descr="untitled"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="8940800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="ID_68D47139ACFB45FEAEB0F926709B4AF0" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="8940800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="ID_D583816B6CA448E49B345F80E0C019EF" descr="图片1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4572000" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="ID_9FD7EDF02FD348AC8485693218206F41" descr="FLU 16"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="6616065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="ID_F7DDDF6EF74E4878802EACC896ADB68D" descr="untitled"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="8940800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="ID_9A19D4AAB37346428416BAFE1A588F37" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="8940800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="ID_C545640B3EB54223912525486200D053" descr="图片2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="ID_1B7DEB7A625C4FD0B5AB26CBD71EDD64" descr="FLU 17"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="6616065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="ID_F292F0D3E5984F9CAF27DAF790D8E1AA" descr="untitled"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="8940800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="ID_DFDEEC17540E467E9ECE368A182DCF87" descr="area"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="8940800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="ID_07597E05790B45B0A54D970CD0E012C3" descr="图片3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4578350" cy="2749550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>采空区长度/m</t>
   </si>
   <si>
     <t>进风口</t>
+  </si>
+  <si>
+    <t>出风口</t>
   </si>
   <si>
     <r>
@@ -1621,11 +1877,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1658,17 +1914,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1679,16 +1927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1703,7 +1944,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1717,21 +1974,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1740,19 +1982,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1765,6 +1998,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1775,6 +2023,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1815,7 +2071,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,13 +2137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,49 +2161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,25 +2173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,7 +2203,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1947,37 +2221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,24 +2256,6 @@
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2033,17 +2271,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2067,18 +2301,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2097,6 +2338,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2105,10 +2361,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2117,7 +2373,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2126,7 +2382,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2135,61 +2391,61 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2198,52 +2454,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2597,44 +2853,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="4" width="20.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="20.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="5.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="10.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="18.4444444444444" customWidth="1"/>
-    <col min="13" max="13" width="20.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="19.1203703703704"/>
-    <col min="15" max="16" width="15.1111111111111" customWidth="1"/>
-    <col min="17" max="17" width="14.1111111111111" customWidth="1"/>
-    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="11.1111111111111" customWidth="1"/>
-    <col min="20" max="21" width="10.5555555555556" customWidth="1"/>
-    <col min="22" max="22" width="28.1388888888889"/>
+    <col min="2" max="3" width="7.66666666666667" customWidth="1"/>
+    <col min="4" max="5" width="20.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="5.66666666666667" customWidth="1"/>
+    <col min="11" max="12" width="10.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="18.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="20.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="19.1203703703704"/>
+    <col min="16" max="17" width="15.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="16.4444444444444" customWidth="1"/>
+    <col min="20" max="20" width="11.1111111111111" customWidth="1"/>
+    <col min="21" max="22" width="10.5555555555556" customWidth="1"/>
+    <col min="23" max="23" width="28.1388888888889"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:22">
+    <row r="1" ht="15.6" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2643,7 +2899,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2653,10 +2909,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2670,10 +2926,10 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
@@ -2691,11 +2947,14 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:22">
+    <row r="2" ht="75" customHeight="1" spans="1:23">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -2703,72 +2962,75 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>201100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>21110</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
         <v>1.2</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="1" t="str">
+      <c r="L2" s="8"/>
+      <c r="M2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F983F65CC3154D119CC692D5B6B79401",1)</f>
         <v>=DISPIMG("ID_F983F65CC3154D119CC692D5B6B79401",1)</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="N2" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_8170750EB2334210A77110D3FAD6A9F7",1)</f>
         <v>=DISPIMG("ID_8170750EB2334210A77110D3FAD6A9F7",1)</v>
       </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>_xlfn.DISPIMG("ID_8282DB99DAD6449E9E4C16E10C03559B",1)</f>
         <v>=DISPIMG("ID_8282DB99DAD6449E9E4C16E10C03559B",1)</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>7607.93</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>391.07</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8073.19</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>16718.76</v>
       </c>
-      <c r="S2">
-        <f>O2/(P2+Q2+O2)</f>
+      <c r="T2">
+        <f>P2/(Q2+R2+P2)</f>
         <v>0.4733598843717</v>
       </c>
-      <c r="T2">
-        <f>P2/(O2+P2+Q2)</f>
+      <c r="U2">
+        <f>Q2/(P2+Q2+R2)</f>
         <v>0.0243320916440137</v>
       </c>
-      <c r="U2">
-        <f>Q2/(O2+P2+Q2)</f>
+      <c r="V2">
+        <f>R2/(P2+Q2+R2)</f>
         <v>0.502308023984286</v>
       </c>
-      <c r="V2" t="str">
+      <c r="W2" t="str">
         <f>_xlfn.DISPIMG("ID_3429682064484E0EAA549C5F5E8950D0",1)</f>
         <v>=DISPIMG("ID_3429682064484E0EAA549C5F5E8950D0",1)</v>
       </c>
     </row>
-    <row r="3" ht="91.95" spans="1:22">
+    <row r="3" ht="91.95" spans="1:23">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -2776,20 +3038,20 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>201100</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>21110</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.3</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -2797,1168 +3059,1450 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1.2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.33</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="M3" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F236A055C578461EB0D8B0E12B824BE9",1)</f>
         <v>=DISPIMG("ID_F236A055C578461EB0D8B0E12B824BE9",1)</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="N3" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B6E6F8E9DCD34F27BE32AFFCEE957AD1",1)</f>
         <v>=DISPIMG("ID_B6E6F8E9DCD34F27BE32AFFCEE957AD1",1)</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>_xlfn.DISPIMG("ID_3750C24FD7894CFA9A0AEDE83EBE9F78",1)</f>
         <v>=DISPIMG("ID_3750C24FD7894CFA9A0AEDE83EBE9F78",1)</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>7110.38</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>999.61</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>7227.32</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>16718.76</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S21" si="0">O3/(P3+Q3+O3)</f>
+      <c r="T3">
+        <f>P3/(Q3+R3+P3)</f>
         <v>0.463600201078286</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T21" si="1">P3/(O3+P3+Q3)</f>
+      <c r="U3">
+        <f>Q3/(P3+Q3+R3)</f>
         <v>0.0651750535132954</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U21" si="2">Q3/(O3+P3+Q3)</f>
+      <c r="V3">
+        <f>R3/(P3+Q3+R3)</f>
         <v>0.471224745408419</v>
       </c>
-      <c r="V3" t="str">
+      <c r="W3" t="str">
         <f>_xlfn.DISPIMG("ID_3FBA00B47D4A4954B64C5E9EDFD4D388",1)</f>
         <v>=DISPIMG("ID_3FBA00B47D4A4954B64C5E9EDFD4D388",1)</v>
       </c>
     </row>
-    <row r="4" ht="77" customHeight="1" spans="1:13">
+    <row r="4" ht="88.7" spans="1:23">
       <c r="A4" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
         <v>201100</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21110</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_F292F0D3E5984F9CAF27DAF790D8E1AA",1)</f>
+        <v>=DISPIMG("ID_F292F0D3E5984F9CAF27DAF790D8E1AA",1)</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" t="str">
+        <f>_xlfn.DISPIMG("ID_DFDEEC17540E467E9ECE368A182DCF87",1)</f>
+        <v>=DISPIMG("ID_DFDEEC17540E467E9ECE368A182DCF87",1)</v>
+      </c>
+      <c r="P4">
+        <v>11589.07</v>
+      </c>
+      <c r="Q4">
+        <v>790.42</v>
+      </c>
+      <c r="R4">
+        <v>2996.23</v>
+      </c>
+      <c r="S4">
+        <v>16719.76</v>
+      </c>
+      <c r="T4">
+        <f>P4/(Q4+R4+P4)</f>
+        <v>0.753725353999683</v>
+      </c>
+      <c r="U4">
+        <f>Q4/(P4+Q4+R4)</f>
+        <v>0.0514070235410114</v>
+      </c>
+      <c r="V4">
+        <f>R4/(P4+Q4+R4)</f>
+        <v>0.194867622459306</v>
+      </c>
+      <c r="W4" t="str">
+        <f>_xlfn.DISPIMG("ID_07597E05790B45B0A54D970CD0E012C3",1)</f>
+        <v>=DISPIMG("ID_07597E05790B45B0A54D970CD0E012C3",1)</v>
+      </c>
+    </row>
+    <row r="5" ht="77" customHeight="1" spans="1:14">
+      <c r="A5" s="1">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>201100</v>
+      </c>
+      <c r="E5" s="1">
         <v>1000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>211100</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>1.2</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="1" t="str">
+      <c r="L5" s="8"/>
+      <c r="M5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_06455EB38AFF403DB52A03D074DD21C9",1)</f>
         <v>=DISPIMG("ID_06455EB38AFF403DB52A03D074DD21C9",1)</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="N5" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_6D6D84D7858C48788E66D209F52E0931",1)</f>
         <v>=DISPIMG("ID_6D6D84D7858C48788E66D209F52E0931",1)</v>
       </c>
     </row>
-    <row r="5" ht="77" customHeight="1" spans="1:13">
-      <c r="A5" s="1">
+    <row r="6" ht="77" customHeight="1" spans="1:14">
+      <c r="A6" s="1">
         <v>150</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>201100</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>211100</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>1.5</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="1" t="str">
+      <c r="L6" s="8"/>
+      <c r="M6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_C9733503DD984B039177D239C7443A90",1)</f>
         <v>=DISPIMG("ID_C9733503DD984B039177D239C7443A90",1)</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="N6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_8B52F31D35824D0084D2470A8DC61A35",1)</f>
         <v>=DISPIMG("ID_8B52F31D35824D0084D2470A8DC61A35",1)</v>
       </c>
     </row>
-    <row r="6" ht="77" customHeight="1" spans="1:13">
-      <c r="A6" s="1">
+    <row r="7" ht="77" customHeight="1" spans="1:14">
+      <c r="A7" s="1">
         <v>150</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
         <v>201100</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>211100</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>2</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="1" t="str">
+      <c r="L7" s="8"/>
+      <c r="M7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_3623CCBE0ED34FADBF18A58542F1A6D4",1)</f>
         <v>=DISPIMG("ID_3623CCBE0ED34FADBF18A58542F1A6D4",1)</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="N7" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_A2F10F215FDF4EADB042B7E158F0CD72",1)</f>
         <v>=DISPIMG("ID_A2F10F215FDF4EADB042B7E158F0CD72",1)</v>
       </c>
     </row>
-    <row r="7" ht="77" customHeight="1" spans="1:22">
-      <c r="A7" s="1">
+    <row r="8" ht="77" customHeight="1" spans="1:23">
+      <c r="A8" s="1">
         <v>150</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>301100</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>211100</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>1.2</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="1" t="str">
+      <c r="L8" s="8"/>
+      <c r="M8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7421FF64CC914FA8838CF131CC5557EE",1)</f>
         <v>=DISPIMG("ID_7421FF64CC914FA8838CF131CC5557EE",1)</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="N8" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_CAB17161862D481CA8B777187EED948D",1)</f>
         <v>=DISPIMG("ID_CAB17161862D481CA8B777187EED948D",1)</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O8" t="str">
         <f>_xlfn.DISPIMG("ID_F1B58DC8A6FD4CB2A2ED9B69C830C22B",1)</f>
         <v>=DISPIMG("ID_F1B58DC8A6FD4CB2A2ED9B69C830C22B",1)</v>
       </c>
-      <c r="O7">
+      <c r="P8">
         <v>8247.58</v>
       </c>
-      <c r="P7">
+      <c r="Q8">
         <v>3216.98</v>
       </c>
-      <c r="Q7">
+      <c r="R8">
         <v>12790.17</v>
       </c>
-      <c r="R7">
+      <c r="S8">
         <v>25068.76</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
+      <c r="T8">
+        <f t="shared" ref="T5:T23" si="0">P8/(Q8+R8+P8)</f>
         <v>0.340040066411789</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
+      <c r="U8">
+        <f t="shared" ref="U5:U23" si="1">Q8/(P8+Q8+R8)</f>
         <v>0.132633098781145</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
+      <c r="V8">
+        <f t="shared" ref="V5:V23" si="2">R8/(P8+Q8+R8)</f>
         <v>0.527326834807067</v>
       </c>
-      <c r="V7" t="str">
+      <c r="W8" t="str">
         <f>_xlfn.DISPIMG("ID_8E89DC1438F841BAB6206D78620D216A",1)</f>
         <v>=DISPIMG("ID_8E89DC1438F841BAB6206D78620D216A",1)</v>
       </c>
     </row>
-    <row r="8" ht="77" customHeight="1" spans="1:22">
-      <c r="A8" s="1">
+    <row r="9" ht="77" customHeight="1" spans="1:23">
+      <c r="A9" s="1">
         <v>150</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
         <v>301100</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>1000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>211100</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>1.5</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="1" t="str">
+      <c r="L9" s="8"/>
+      <c r="M9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_EE59177EFFD04BDC93CB051C2B8B2211",1)</f>
         <v>=DISPIMG("ID_EE59177EFFD04BDC93CB051C2B8B2211",1)</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="N9" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_797ACB6FE5A748B1ACD901551D5D203A",1)</f>
         <v>=DISPIMG("ID_797ACB6FE5A748B1ACD901551D5D203A",1)</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O9" t="str">
         <f>_xlfn.DISPIMG("ID_649554D0B2FE4BBCAC1F009EE5D4208D",1)</f>
         <v>=DISPIMG("ID_649554D0B2FE4BBCAC1F009EE5D4208D",1)</v>
       </c>
-      <c r="O8">
+      <c r="P9">
         <v>8371.18</v>
       </c>
-      <c r="P8">
+      <c r="Q9">
         <v>2428.73</v>
       </c>
-      <c r="Q8">
+      <c r="R9">
         <v>13350.79</v>
       </c>
-      <c r="R8">
+      <c r="S9">
         <v>25068.76</v>
       </c>
-      <c r="S8">
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>0.346622665181548</v>
       </c>
-      <c r="T8">
+      <c r="U9">
         <f t="shared" si="1"/>
         <v>0.100565615075339</v>
       </c>
-      <c r="U8">
+      <c r="V9">
         <f t="shared" si="2"/>
         <v>0.552811719743113</v>
       </c>
-      <c r="V8" t="str">
+      <c r="W9" t="str">
         <f>_xlfn.DISPIMG("ID_09884438A075462181A9800A93E63E43",1)</f>
         <v>=DISPIMG("ID_09884438A075462181A9800A93E63E43",1)</v>
       </c>
     </row>
-    <row r="9" ht="77" customHeight="1" spans="1:21">
-      <c r="A9" s="1">
+    <row r="10" ht="77" customHeight="1" spans="1:22">
+      <c r="A10" s="1">
         <v>150</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
         <v>301100</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>1000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>211100</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="1" t="str">
+      <c r="L10" s="8"/>
+      <c r="M10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7F1B6B9CA3B24E9592FD8F33CB8915C7",1)</f>
         <v>=DISPIMG("ID_7F1B6B9CA3B24E9592FD8F33CB8915C7",1)</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="N10" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_BAFDCA1407A54DF48E5916F63463F806",1)</f>
         <v>=DISPIMG("ID_BAFDCA1407A54DF48E5916F63463F806",1)</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O10" t="str">
         <f>_xlfn.DISPIMG("ID_0431AA0FE6EA4087B7284B0116259C70",1)</f>
         <v>=DISPIMG("ID_0431AA0FE6EA4087B7284B0116259C70",1)</v>
       </c>
-      <c r="O9">
+      <c r="P10">
         <v>10774.26</v>
       </c>
-      <c r="P9">
+      <c r="Q10">
         <v>1790.89</v>
       </c>
-      <c r="Q9">
+      <c r="R10">
         <v>11640.38</v>
       </c>
-      <c r="R9">
+      <c r="S10">
         <v>25068.76</v>
       </c>
-      <c r="S9">
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>0.445115640929986</v>
       </c>
-      <c r="T9">
+      <c r="U10">
         <f t="shared" si="1"/>
         <v>0.0739868121045067</v>
       </c>
-      <c r="U9">
+      <c r="V10">
         <f t="shared" si="2"/>
         <v>0.480897546965507</v>
       </c>
     </row>
-    <row r="10" ht="91.95" spans="1:22">
-      <c r="A10" s="1">
+    <row r="11" ht="91.95" spans="1:23">
+      <c r="A11" s="1">
         <v>150</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
         <v>201100</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E11" s="1">
         <v>1000</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F11" s="1">
         <v>211100</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G11" s="1">
         <v>0.2</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>1.2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L11" s="4">
         <v>0.33</v>
       </c>
-      <c r="L10" s="1" t="str">
-        <f t="shared" ref="L10:L12" si="3">_xlfn.DISPIMG("ID_F0E131ED61BD48B4ADD317C386DF747C",1)</f>
+      <c r="M11" s="1" t="str">
+        <f t="shared" ref="M11:M13" si="3">_xlfn.DISPIMG("ID_F0E131ED61BD48B4ADD317C386DF747C",1)</f>
         <v>=DISPIMG("ID_F0E131ED61BD48B4ADD317C386DF747C",1)</v>
       </c>
-      <c r="M10" s="1" t="str">
-        <f t="shared" ref="M10:M12" si="4">_xlfn.DISPIMG("ID_246DE20D0AFA447E869A1CC800BF347A",1)</f>
+      <c r="N11" s="1" t="str">
+        <f t="shared" ref="N11:N13" si="4">_xlfn.DISPIMG("ID_246DE20D0AFA447E869A1CC800BF347A",1)</f>
         <v>=DISPIMG("ID_246DE20D0AFA447E869A1CC800BF347A",1)</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O11" t="str">
         <f>_xlfn.DISPIMG("ID_C79C601621CA4F46BC153AD3EBECBBCF",1)</f>
         <v>=DISPIMG("ID_C79C601621CA4F46BC153AD3EBECBBCF",1)</v>
       </c>
-      <c r="O10">
+      <c r="P11">
         <v>8675.68</v>
       </c>
-      <c r="P10">
+      <c r="Q11">
         <v>1305.34</v>
       </c>
-      <c r="Q10">
+      <c r="R11">
         <v>13196.76</v>
       </c>
-      <c r="R10">
+      <c r="S11">
         <v>25068.76</v>
       </c>
-      <c r="S10">
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>0.374310222980803</v>
       </c>
-      <c r="T10">
+      <c r="U11">
         <f t="shared" si="1"/>
         <v>0.056318594792081</v>
       </c>
-      <c r="U10">
+      <c r="V11">
         <f t="shared" si="2"/>
         <v>0.569371182227116</v>
       </c>
-      <c r="V10" t="str">
+      <c r="W11" t="str">
         <f>_xlfn.DISPIMG("ID_1FC4DC48A2F746939293EA039935E297",1)</f>
         <v>=DISPIMG("ID_1FC4DC48A2F746939293EA039935E297",1)</v>
       </c>
     </row>
-    <row r="11" ht="84" customHeight="1" spans="1:22">
-      <c r="A11" s="1">
+    <row r="12" ht="84" customHeight="1" spans="1:23">
+      <c r="A12" s="1">
         <v>150</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
         <v>201100</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E12" s="1">
         <v>1000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F12" s="1">
         <v>211100</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>0.2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L12" s="4">
         <v>0.5</v>
       </c>
-      <c r="L11" s="1" t="str">
+      <c r="M12" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F6A511048B48469089A68D59A08851A7",1)</f>
         <v>=DISPIMG("ID_F6A511048B48469089A68D59A08851A7",1)</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="N12" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_FCE3CA108DF94502AC9316CCEE57C1D8",1)</f>
         <v>=DISPIMG("ID_FCE3CA108DF94502AC9316CCEE57C1D8",1)</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O12" t="str">
         <f>_xlfn.DISPIMG("ID_89476ACED1134E61B56EBE9AFA1C8BEE",1)</f>
         <v>=DISPIMG("ID_89476ACED1134E61B56EBE9AFA1C8BEE",1)</v>
       </c>
-      <c r="O11">
+      <c r="P12">
         <v>8874.62</v>
       </c>
-      <c r="P11">
+      <c r="Q12">
         <v>1578.58</v>
       </c>
-      <c r="Q11">
+      <c r="R12">
         <v>12556.69</v>
       </c>
-      <c r="R11">
+      <c r="S12">
         <v>25068.76</v>
       </c>
-      <c r="S11">
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>0.385687197983128</v>
       </c>
-      <c r="T11">
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>0.0686044131458255</v>
       </c>
-      <c r="U11">
+      <c r="V12">
         <f t="shared" si="2"/>
         <v>0.545708388871046</v>
       </c>
-      <c r="V11" t="str">
+      <c r="W12" t="str">
         <f>_xlfn.DISPIMG("ID_7378B5414A914F79BE3C3204775BAD9A",1)</f>
         <v>=DISPIMG("ID_7378B5414A914F79BE3C3204775BAD9A",1)</v>
       </c>
     </row>
-    <row r="12" ht="91.95" spans="1:21">
-      <c r="A12" s="1">
+    <row r="13" ht="88.75" spans="1:22">
+      <c r="A13" s="1">
         <v>150</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>201100</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E13" s="1">
         <v>1000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="1">
         <v>211100</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G13" s="1">
         <v>0.2</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L13" s="4">
         <v>0.8</v>
       </c>
-      <c r="L12" s="1" t="str">
+      <c r="M13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_F8053EFE551046B99392A64A89646332",1)</f>
         <v>=DISPIMG("ID_F8053EFE551046B99392A64A89646332",1)</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="N13" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B4B58CBBAB634792834BBB113B6B80A9",1)</f>
         <v>=DISPIMG("ID_B4B58CBBAB634792834BBB113B6B80A9",1)</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O13" t="str">
         <f>_xlfn.DISPIMG("ID_1FBE4D2F36CF45AB90BBD0C5A48D81C4",1)</f>
         <v>=DISPIMG("ID_1FBE4D2F36CF45AB90BBD0C5A48D81C4",1)</v>
       </c>
-      <c r="O12">
+      <c r="P13">
         <v>10170.36</v>
       </c>
-      <c r="P12">
+      <c r="Q13">
         <v>1737.46</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="R13" s="9">
         <v>11256.5</v>
       </c>
-      <c r="R12">
+      <c r="S13">
         <v>25068.76</v>
       </c>
-      <c r="S12">
+      <c r="T13">
         <f t="shared" si="0"/>
         <v>0.439052819163265</v>
       </c>
-      <c r="T12">
+      <c r="U13">
         <f t="shared" si="1"/>
         <v>0.0750058710983098</v>
       </c>
-      <c r="U12">
+      <c r="V13">
         <f t="shared" si="2"/>
         <v>0.485941309738425</v>
       </c>
     </row>
-    <row r="13" ht="92" customHeight="1" spans="1:22">
-      <c r="A13" s="1">
+    <row r="14" ht="88.7" spans="1:23">
+      <c r="A14" s="1">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>201100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>211100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_F7DDDF6EF74E4878802EACC896ADB68D",1)</f>
+        <v>=DISPIMG("ID_F7DDDF6EF74E4878802EACC896ADB68D",1)</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_1B7DEB7A625C4FD0B5AB26CBD71EDD64",1)</f>
+        <v>=DISPIMG("ID_1B7DEB7A625C4FD0B5AB26CBD71EDD64",1)</v>
+      </c>
+      <c r="O14" t="str">
+        <f>_xlfn.DISPIMG("ID_9A19D4AAB37346428416BAFE1A588F37",1)</f>
+        <v>=DISPIMG("ID_9A19D4AAB37346428416BAFE1A588F37",1)</v>
+      </c>
+      <c r="P14">
+        <v>16566.25</v>
+      </c>
+      <c r="Q14">
+        <v>1238.24</v>
+      </c>
+      <c r="R14" s="9">
+        <v>5555.47</v>
+      </c>
+      <c r="S14">
+        <v>25069.76</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.709172875296019</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>0.0530069400803768</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>0.237820184623604</v>
+      </c>
+      <c r="W14" t="str">
+        <f>_xlfn.DISPIMG("ID_C545640B3EB54223912525486200D053",1)</f>
+        <v>=DISPIMG("ID_C545640B3EB54223912525486200D053",1)</v>
+      </c>
+    </row>
+    <row r="15" ht="92" customHeight="1" spans="1:23">
+      <c r="A15" s="1">
         <v>200</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
         <v>1511000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E15" s="1">
         <v>10000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F15" s="1">
         <v>211100</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>0.01</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>1.2</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="1" t="str">
+      <c r="L15" s="8"/>
+      <c r="M15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DE6B6D5CC8294A68A94A38AF6EDB9EA5",1)</f>
         <v>=DISPIMG("ID_DE6B6D5CC8294A68A94A38AF6EDB9EA5",1)</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="N15" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_9A528EA943F244C4BB7650F08B795525",1)</f>
         <v>=DISPIMG("ID_9A528EA943F244C4BB7650F08B795525",1)</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O15" t="str">
         <f>_xlfn.DISPIMG("ID_4082BAA320474C5C812741BF0CE48CC6",1)</f>
         <v>=DISPIMG("ID_4082BAA320474C5C812741BF0CE48CC6",1)</v>
       </c>
-      <c r="O13">
+      <c r="P15">
         <v>6694.14</v>
       </c>
-      <c r="P13">
+      <c r="Q15">
         <v>3180.25</v>
       </c>
-      <c r="Q13">
+      <c r="R15">
         <v>22731.96</v>
       </c>
-      <c r="R13">
+      <c r="S15">
         <v>33418.76</v>
       </c>
-      <c r="S13">
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>0.205301728037637</v>
       </c>
-      <c r="T13">
+      <c r="U15">
         <f t="shared" si="1"/>
         <v>0.0975346826615061</v>
       </c>
-      <c r="U13">
+      <c r="V15">
         <f t="shared" si="2"/>
         <v>0.697163589300857</v>
       </c>
-      <c r="V13" t="str">
+      <c r="W15" t="str">
         <f>_xlfn.DISPIMG("ID_5A0950C14E6844C2BE854673493BDE7F",1)</f>
         <v>=DISPIMG("ID_5A0950C14E6844C2BE854673493BDE7F",1)</v>
       </c>
     </row>
-    <row r="14" ht="92" customHeight="1" spans="1:22">
-      <c r="A14" s="1">
+    <row r="16" ht="92" customHeight="1" spans="1:23">
+      <c r="A16" s="1">
         <v>200</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
         <v>1511000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E16" s="1">
         <v>10000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F16" s="1">
         <v>211100</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G16" s="4">
         <v>0.1</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>0.01</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>1.2</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="1" t="str">
+      <c r="L16" s="8"/>
+      <c r="M16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_12BAAE8AF2F04194B9F7F4898357EEF2",1)</f>
         <v>=DISPIMG("ID_12BAAE8AF2F04194B9F7F4898357EEF2",1)</v>
       </c>
-      <c r="M14" s="1" t="str">
+      <c r="N16" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_1A279E5755564BE48972B0C16E05D7D0",1)</f>
         <v>=DISPIMG("ID_1A279E5755564BE48972B0C16E05D7D0",1)</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O16" t="str">
         <f>_xlfn.DISPIMG("ID_76016E2091CC4141B0CBBEAABD0E2744",1)</f>
         <v>=DISPIMG("ID_76016E2091CC4141B0CBBEAABD0E2744",1)</v>
       </c>
-      <c r="O14">
+      <c r="P16">
         <v>5120.91</v>
       </c>
-      <c r="P14">
+      <c r="Q16">
         <v>553.62</v>
       </c>
-      <c r="Q14">
+      <c r="R16">
         <v>26893.82</v>
       </c>
-      <c r="R14">
+      <c r="S16">
         <v>33418.76</v>
       </c>
-      <c r="S14">
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>0.157235782592609</v>
       </c>
-      <c r="T14">
+      <c r="U16">
         <f t="shared" si="1"/>
         <v>0.0169987119396592</v>
       </c>
-      <c r="U14">
+      <c r="V16">
         <f t="shared" si="2"/>
         <v>0.825765505467732</v>
       </c>
-      <c r="V14" t="str">
+      <c r="W16" t="str">
         <f>_xlfn.DISPIMG("ID_856BF2A19052440B8E39C7D7D046D643",1)</f>
         <v>=DISPIMG("ID_856BF2A19052440B8E39C7D7D046D643",1)</v>
       </c>
     </row>
-    <row r="15" ht="92" customHeight="1" spans="1:21">
-      <c r="A15" s="1">
+    <row r="17" ht="92" customHeight="1" spans="1:22">
+      <c r="A17" s="1">
         <v>200</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>1511000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E17" s="1">
         <v>10000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F17" s="1">
         <v>211100</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G17" s="4">
         <v>0.2</v>
       </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>0.01</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>1.2</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="1" t="str">
+      <c r="L17" s="8"/>
+      <c r="M17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_999DB31C7B0544FF86D4400D2433202A",1)</f>
         <v>=DISPIMG("ID_999DB31C7B0544FF86D4400D2433202A",1)</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="N17" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_873BC7CCE07F4A87BF95582698593BDA",1)</f>
         <v>=DISPIMG("ID_873BC7CCE07F4A87BF95582698593BDA",1)</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O17" t="str">
         <f>_xlfn.DISPIMG("ID_85CC7D074BE64B568F688A1E47B6E4DA",1)</f>
         <v>=DISPIMG("ID_85CC7D074BE64B568F688A1E47B6E4DA",1)</v>
       </c>
-      <c r="O15">
+      <c r="P17">
         <v>4378.07</v>
       </c>
-      <c r="P15">
+      <c r="Q17">
         <v>443.96</v>
       </c>
-      <c r="Q15">
+      <c r="R17">
         <v>27784.09</v>
       </c>
-      <c r="R15">
+      <c r="S17">
         <v>33418.76</v>
       </c>
-      <c r="S15">
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>0.134271418985148</v>
       </c>
-      <c r="T15">
+      <c r="U17">
         <f t="shared" si="1"/>
         <v>0.0136158488038442</v>
       </c>
-      <c r="U15">
+      <c r="V17">
         <f t="shared" si="2"/>
         <v>0.852112732211008</v>
       </c>
     </row>
-    <row r="16" ht="94" customHeight="1" spans="1:13">
-      <c r="A16" s="1">
+    <row r="18" ht="94" customHeight="1" spans="1:14">
+      <c r="A18" s="1">
         <v>200</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>1511000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E18" s="1">
         <v>10000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F18" s="1">
         <v>211100</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>1.2</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="1" t="str">
+      <c r="L18" s="8"/>
+      <c r="M18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B050C39D49AF4672BFB0FD2F95A7608B",1)</f>
         <v>=DISPIMG("ID_B050C39D49AF4672BFB0FD2F95A7608B",1)</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="N18" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_158E6EF53DCF412F8CDCDF3B77A5BB66",1)</f>
         <v>=DISPIMG("ID_158E6EF53DCF412F8CDCDF3B77A5BB66",1)</v>
       </c>
     </row>
-    <row r="17" ht="94" customHeight="1" spans="1:13">
-      <c r="A17" s="1">
+    <row r="19" ht="94" customHeight="1" spans="1:14">
+      <c r="A19" s="1">
         <v>200</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <v>1511000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E19" s="1">
         <v>10000</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F19" s="1">
         <v>211100</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G19" s="6">
         <v>0.1</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>1.2</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="1" t="str">
+      <c r="L19" s="8"/>
+      <c r="M19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_567AF5054CC4436C828E2332E0F499D8",1)</f>
         <v>=DISPIMG("ID_567AF5054CC4436C828E2332E0F499D8",1)</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="N19" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DDA924D200A849FFB9F03B9AC43C40D8",1)</f>
         <v>=DISPIMG("ID_DDA924D200A849FFB9F03B9AC43C40D8",1)</v>
       </c>
     </row>
-    <row r="18" ht="88" customHeight="1" spans="1:13">
-      <c r="A18" s="1">
+    <row r="20" ht="88" customHeight="1" spans="1:14">
+      <c r="A20" s="1">
         <v>200</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>1511000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E20" s="1">
         <v>10000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F20" s="1">
         <v>211100</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G20" s="6">
         <v>0.2</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>1.2</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="1" t="str">
+      <c r="L20" s="8"/>
+      <c r="M20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_13A04474B9044C3E882180466A798451",1)</f>
         <v>=DISPIMG("ID_13A04474B9044C3E882180466A798451",1)</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="N20" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_7F572681FC0E4FAFAF6FAFA4597E8ED3",1)</f>
         <v>=DISPIMG("ID_7F572681FC0E4FAFAF6FAFA4597E8ED3",1)</v>
       </c>
     </row>
-    <row r="19" ht="88" customHeight="1" spans="1:22">
-      <c r="A19" s="1">
+    <row r="21" ht="88" customHeight="1" spans="1:23">
+      <c r="A21" s="1">
         <v>200</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>1511000</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E21" s="1">
         <v>10000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F21" s="1">
         <v>200000</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G21" s="4">
         <v>0.05</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>1.2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L21" s="1">
         <v>0.33</v>
       </c>
-      <c r="L19" s="1" t="str">
+      <c r="M21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_B842272404624352863CBBC138399F37",1)</f>
         <v>=DISPIMG("ID_B842272404624352863CBBC138399F37",1)</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="N21" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_5FA6B83FDA1E4BF19CE369797E0A5B4B",1)</f>
         <v>=DISPIMG("ID_5FA6B83FDA1E4BF19CE369797E0A5B4B",1)</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O21" t="str">
         <f>_xlfn.DISPIMG("ID_40C375DA1AAC4E00A295E5348F8AE42F",1)</f>
         <v>=DISPIMG("ID_40C375DA1AAC4E00A295E5348F8AE42F",1)</v>
       </c>
-      <c r="O19">
+      <c r="P21">
         <v>12147.84</v>
       </c>
-      <c r="P19">
+      <c r="Q21">
         <v>1527.97</v>
       </c>
-      <c r="Q19">
+      <c r="R21">
         <v>17123.89</v>
       </c>
-      <c r="R19">
+      <c r="S21">
         <v>33418.76</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
+      <c r="T21">
+        <f>P21/(Q21+R21+P21)</f>
         <v>0.394414231307448</v>
       </c>
-      <c r="T19">
-        <f t="shared" si="1"/>
+      <c r="U21">
+        <f>Q21/(P21+Q21+R21)</f>
         <v>0.0496098987977156</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="2"/>
+      <c r="V21">
+        <f>R21/(P21+Q21+R21)</f>
         <v>0.555975869894837</v>
       </c>
-      <c r="V19" t="str">
+      <c r="W21" t="str">
         <f>_xlfn.DISPIMG("ID_6C14CC3F68394FFF96D13B4AFD768174",1)</f>
         <v>=DISPIMG("ID_6C14CC3F68394FFF96D13B4AFD768174",1)</v>
       </c>
     </row>
-    <row r="20" ht="88" customHeight="1" spans="1:22">
-      <c r="A20" s="1">
+    <row r="22" ht="88" customHeight="1" spans="1:23">
+      <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
         <v>1511000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E22" s="1">
         <v>10000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F22" s="1">
         <v>200000</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G22" s="4">
         <v>0.1</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>1.2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L22" s="1">
         <v>0.33</v>
       </c>
-      <c r="L20" s="1" t="str">
+      <c r="M22" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_47D3E4B6664E439181A0536740D67E28",1)</f>
         <v>=DISPIMG("ID_47D3E4B6664E439181A0536740D67E28",1)</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="N22" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_2571326401F347A1A85FDB2F07CC74B6",1)</f>
         <v>=DISPIMG("ID_2571326401F347A1A85FDB2F07CC74B6",1)</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O22" t="str">
         <f>_xlfn.DISPIMG("ID_94F48358881F4235A391A441EC6DEEA3",1)</f>
         <v>=DISPIMG("ID_94F48358881F4235A391A441EC6DEEA3",1)</v>
       </c>
-      <c r="O20">
+      <c r="P22">
         <v>9795.68</v>
       </c>
-      <c r="P20">
+      <c r="Q22">
         <v>1307.8</v>
       </c>
-      <c r="Q20">
+      <c r="R22">
         <v>19854.99</v>
       </c>
-      <c r="R20">
+      <c r="S22">
         <v>33418.76</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
+      <c r="T22">
+        <f>P22/(Q22+R22+P22)</f>
         <v>0.316413569533637</v>
       </c>
-      <c r="T20">
-        <f t="shared" si="1"/>
+      <c r="U22">
+        <f>Q22/(P22+Q22+R22)</f>
         <v>0.0422436896913833</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="2"/>
+      <c r="V22">
+        <f>R22/(P22+Q22+R22)</f>
         <v>0.64134274077498</v>
       </c>
-      <c r="V20" t="str">
+      <c r="W22" t="str">
         <f>_xlfn.DISPIMG("ID_986F5CED1A844C76A93FAC5E4259506C",1)</f>
         <v>=DISPIMG("ID_986F5CED1A844C76A93FAC5E4259506C",1)</v>
       </c>
     </row>
-    <row r="21" ht="91.95" spans="1:21">
-      <c r="A21" s="1">
+    <row r="23" ht="88.7" spans="1:22">
+      <c r="A23" s="1">
         <v>200</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
         <v>1511000</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E23" s="1">
         <v>10000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F23" s="1">
         <v>200000</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G23" s="4">
         <v>0.2</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>1.2</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L23" s="1">
         <v>0.33</v>
       </c>
-      <c r="L21" s="1" t="str">
+      <c r="M23" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_A8649C931AD9498B86839CFC4F573212",1)</f>
         <v>=DISPIMG("ID_A8649C931AD9498B86839CFC4F573212",1)</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="N23" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_DF56803C2A6F4530981D82853D0569AD",1)</f>
         <v>=DISPIMG("ID_DF56803C2A6F4530981D82853D0569AD",1)</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O23" t="str">
         <f>_xlfn.DISPIMG("ID_3A47A2A0F6824C9292849DE355B3F125",1)</f>
         <v>=DISPIMG("ID_3A47A2A0F6824C9292849DE355B3F125",1)</v>
       </c>
-      <c r="O21">
+      <c r="P23">
         <v>7857.19</v>
       </c>
-      <c r="P21">
+      <c r="Q23">
         <v>1214.93</v>
       </c>
-      <c r="Q21">
+      <c r="R23">
         <v>22096.68</v>
       </c>
-      <c r="R21">
+      <c r="S23">
         <v>33418.76</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
+      <c r="T23">
+        <f>P23/(Q23+R23+P23)</f>
         <v>0.252085097918431</v>
       </c>
-      <c r="T21">
-        <f t="shared" si="1"/>
+      <c r="U23">
+        <f>Q23/(P23+Q23+R23)</f>
         <v>0.0389790431457098</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="2"/>
+      <c r="V23">
+        <f>R23/(P23+Q23+R23)</f>
         <v>0.708935858935859</v>
+      </c>
+    </row>
+    <row r="24" ht="88.7" spans="1:23">
+      <c r="A24" s="1">
+        <v>200</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1511000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1.2</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" t="str">
+        <f>_xlfn.DISPIMG("ID_45A0FEAB9E71469AB2CEC3376373B16F",1)</f>
+        <v>=DISPIMG("ID_45A0FEAB9E71469AB2CEC3376373B16F",1)</v>
+      </c>
+      <c r="N24" t="str">
+        <f>_xlfn.DISPIMG("ID_9FD7EDF02FD348AC8485693218206F41",1)</f>
+        <v>=DISPIMG("ID_9FD7EDF02FD348AC8485693218206F41",1)</v>
+      </c>
+      <c r="O24" t="str">
+        <f>_xlfn.DISPIMG("ID_68D47139ACFB45FEAEB0F926709B4AF0",1)</f>
+        <v>=DISPIMG("ID_68D47139ACFB45FEAEB0F926709B4AF0",1)</v>
+      </c>
+      <c r="P24">
+        <v>14351.6</v>
+      </c>
+      <c r="Q24">
+        <v>1517.13</v>
+      </c>
+      <c r="R24">
+        <v>14681.48</v>
+      </c>
+      <c r="S24">
+        <v>33419.76</v>
+      </c>
+      <c r="T24">
+        <f>P24/(Q24+R24+P24)</f>
+        <v>0.469770911558382</v>
+      </c>
+      <c r="U24">
+        <f>Q24/(P24+Q24+R24)</f>
+        <v>0.0496602151016311</v>
+      </c>
+      <c r="V24">
+        <f>R24/(P24+Q24+R24)</f>
+        <v>0.480568873339987</v>
+      </c>
+      <c r="W24" t="str">
+        <f>_xlfn.DISPIMG("ID_D583816B6CA448E49B345F80E0C019EF",1)</f>
+        <v>=DISPIMG("ID_D583816B6CA448E49B345F80E0C019EF",1)</v>
       </c>
     </row>
   </sheetData>
